--- a/Code/Results/Cases/Case_5_215/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_215/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.016574454859808</v>
+        <v>1.039822463303314</v>
       </c>
       <c r="D2">
-        <v>1.031168263742676</v>
+        <v>1.042121712432953</v>
       </c>
       <c r="E2">
-        <v>1.029160865261531</v>
+        <v>1.047808065905107</v>
       </c>
       <c r="F2">
-        <v>1.0363365368548</v>
+        <v>1.057498777878844</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053477414461544</v>
+        <v>1.042918224583322</v>
       </c>
       <c r="J2">
-        <v>1.038270481003277</v>
+        <v>1.044912398873431</v>
       </c>
       <c r="K2">
-        <v>1.04220980335778</v>
+        <v>1.044899293951856</v>
       </c>
       <c r="L2">
-        <v>1.040228358544591</v>
+        <v>1.050569669777072</v>
       </c>
       <c r="M2">
-        <v>1.047311833839456</v>
+        <v>1.060233581550295</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.020644276543229</v>
+        <v>1.040682827700167</v>
       </c>
       <c r="D3">
-        <v>1.034112132285001</v>
+        <v>1.042759306656269</v>
       </c>
       <c r="E3">
-        <v>1.032594659381744</v>
+        <v>1.048585319699209</v>
       </c>
       <c r="F3">
-        <v>1.040222103119486</v>
+        <v>1.058386113757657</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054852304692222</v>
+        <v>1.043150409370334</v>
       </c>
       <c r="J3">
-        <v>1.040587552469447</v>
+        <v>1.045418573047115</v>
       </c>
       <c r="K3">
-        <v>1.04432638179602</v>
+        <v>1.045348109437201</v>
       </c>
       <c r="L3">
-        <v>1.042826803302831</v>
+        <v>1.051158932055789</v>
       </c>
       <c r="M3">
-        <v>1.050364955460647</v>
+        <v>1.06093457893126</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.023227954367799</v>
+        <v>1.041240068048999</v>
       </c>
       <c r="D4">
-        <v>1.035983258252006</v>
+        <v>1.043172236401728</v>
       </c>
       <c r="E4">
-        <v>1.034780134214226</v>
+        <v>1.049089122854325</v>
       </c>
       <c r="F4">
-        <v>1.042695009930604</v>
+        <v>1.058961317616562</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055715447356156</v>
+        <v>1.043299591956947</v>
       </c>
       <c r="J4">
-        <v>1.042055588279117</v>
+        <v>1.045745966312441</v>
       </c>
       <c r="K4">
-        <v>1.045665959867093</v>
+        <v>1.045638197542667</v>
       </c>
       <c r="L4">
-        <v>1.044476161000985</v>
+        <v>1.051540431010173</v>
       </c>
       <c r="M4">
-        <v>1.05230406831379</v>
+        <v>1.061388569452126</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024302594087689</v>
+        <v>1.04147445656412</v>
       </c>
       <c r="D5">
-        <v>1.036762019805711</v>
+        <v>1.04334591746405</v>
       </c>
       <c r="E5">
-        <v>1.035690452565359</v>
+        <v>1.049301127768389</v>
       </c>
       <c r="F5">
-        <v>1.043725037572199</v>
+        <v>1.059203380062493</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056072097663867</v>
+        <v>1.043362054614016</v>
       </c>
       <c r="J5">
-        <v>1.042665463230667</v>
+        <v>1.045883568844992</v>
       </c>
       <c r="K5">
-        <v>1.046222116932865</v>
+        <v>1.045760071459705</v>
       </c>
       <c r="L5">
-        <v>1.045162099567238</v>
+        <v>1.05170086132877</v>
       </c>
       <c r="M5">
-        <v>1.053110790885585</v>
+        <v>1.061579520888876</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024482364838179</v>
+        <v>1.041513818694332</v>
       </c>
       <c r="D6">
-        <v>1.036892322644028</v>
+        <v>1.043375084238061</v>
       </c>
       <c r="E6">
-        <v>1.035842810660757</v>
+        <v>1.04933673635999</v>
       </c>
       <c r="F6">
-        <v>1.043897430554244</v>
+        <v>1.059244037828963</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056131620048924</v>
+        <v>1.043372527469259</v>
       </c>
       <c r="J6">
-        <v>1.042767442167264</v>
+        <v>1.045906670910369</v>
       </c>
       <c r="K6">
-        <v>1.046315092607825</v>
+        <v>1.045780529952234</v>
       </c>
       <c r="L6">
-        <v>1.045276840704834</v>
+        <v>1.051727801069559</v>
       </c>
       <c r="M6">
-        <v>1.053245752879688</v>
+        <v>1.061611587932272</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.023242358607564</v>
+        <v>1.041243199471811</v>
       </c>
       <c r="D7">
-        <v>1.03599369469906</v>
+        <v>1.043174556803119</v>
       </c>
       <c r="E7">
-        <v>1.034792330814146</v>
+        <v>1.049091954866828</v>
       </c>
       <c r="F7">
-        <v>1.042708810462867</v>
+        <v>1.058964551099543</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055720237186591</v>
+        <v>1.04330042758387</v>
       </c>
       <c r="J7">
-        <v>1.042063765836343</v>
+        <v>1.045747805097744</v>
       </c>
       <c r="K7">
-        <v>1.045673418545566</v>
+        <v>1.045639826340302</v>
       </c>
       <c r="L7">
-        <v>1.044485355550091</v>
+        <v>1.051542574500424</v>
       </c>
       <c r="M7">
-        <v>1.052314880780801</v>
+        <v>1.061391120587847</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.017960407146196</v>
+        <v>1.040113117443816</v>
       </c>
       <c r="D8">
-        <v>1.032170282918737</v>
+        <v>1.042337114092236</v>
       </c>
       <c r="E8">
-        <v>1.030329035316324</v>
+        <v>1.048070561704961</v>
       </c>
       <c r="F8">
-        <v>1.037658426465511</v>
+        <v>1.057798441139049</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05394763294834</v>
+        <v>1.042996910807385</v>
       </c>
       <c r="J8">
-        <v>1.039060141344405</v>
+        <v>1.045083490085615</v>
       </c>
       <c r="K8">
-        <v>1.04293143025633</v>
+        <v>1.045051039932464</v>
       </c>
       <c r="L8">
-        <v>1.041113273451185</v>
+        <v>1.050768770071914</v>
       </c>
       <c r="M8">
-        <v>1.048351353064685</v>
+        <v>1.060470403490928</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.008253981152785</v>
+        <v>1.038125871715058</v>
       </c>
       <c r="D9">
-        <v>1.025164015524979</v>
+        <v>1.040864291502417</v>
       </c>
       <c r="E9">
-        <v>1.022172786809423</v>
+        <v>1.046277460487591</v>
       </c>
       <c r="F9">
-        <v>1.028428055997585</v>
+        <v>1.055751637725469</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050614942270849</v>
+        <v>1.042454018258113</v>
       </c>
       <c r="J9">
-        <v>1.033518599504355</v>
+        <v>1.04391189969904</v>
       </c>
       <c r="K9">
-        <v>1.037861603341651</v>
+        <v>1.044011082560252</v>
       </c>
       <c r="L9">
-        <v>1.034916084871648</v>
+        <v>1.049406872369339</v>
       </c>
       <c r="M9">
-        <v>1.041076151047799</v>
+        <v>1.058851101320852</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.001488535953311</v>
+        <v>1.036803889301303</v>
       </c>
       <c r="D10">
-        <v>1.020297024888666</v>
+        <v>1.039884430488777</v>
       </c>
       <c r="E10">
-        <v>1.016521115896062</v>
+        <v>1.045086683406827</v>
       </c>
       <c r="F10">
-        <v>1.022030573089099</v>
+        <v>1.054392609441817</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048243444641057</v>
+        <v>1.042086718776604</v>
       </c>
       <c r="J10">
-        <v>1.029643219647382</v>
+        <v>1.043130250922797</v>
       </c>
       <c r="K10">
-        <v>1.034309231945315</v>
+        <v>1.043316207619356</v>
       </c>
       <c r="L10">
-        <v>1.03059834875545</v>
+        <v>1.048500127417078</v>
       </c>
       <c r="M10">
-        <v>1.036013134186214</v>
+        <v>1.057773755320333</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9984828811770529</v>
+        <v>1.036232150528977</v>
       </c>
       <c r="D11">
-        <v>1.018139382474923</v>
+        <v>1.039460639974644</v>
       </c>
       <c r="E11">
-        <v>1.014018720420587</v>
+        <v>1.04457218214707</v>
       </c>
       <c r="F11">
-        <v>1.019197438204422</v>
+        <v>1.053805464082878</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047178873196409</v>
+        <v>1.04192640975119</v>
       </c>
       <c r="J11">
-        <v>1.027918910546781</v>
+        <v>1.042791663911963</v>
       </c>
       <c r="K11">
-        <v>1.032727136691404</v>
+        <v>1.043014961594752</v>
       </c>
       <c r="L11">
-        <v>1.028681019626918</v>
+        <v>1.048107795411837</v>
       </c>
       <c r="M11">
-        <v>1.033766177979044</v>
+        <v>1.057307791052855</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9973544290972463</v>
+        <v>1.036019886192581</v>
       </c>
       <c r="D12">
-        <v>1.017330062891306</v>
+        <v>1.039303301472834</v>
       </c>
       <c r="E12">
-        <v>1.013080532064491</v>
+        <v>1.044381242448094</v>
       </c>
       <c r="F12">
-        <v>1.01813515932282</v>
+        <v>1.053587572721888</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046777581543057</v>
+        <v>1.041866674407089</v>
       </c>
       <c r="J12">
-        <v>1.02727117779703</v>
+        <v>1.042665879606897</v>
       </c>
       <c r="K12">
-        <v>1.03213261096953</v>
+        <v>1.042903012421055</v>
       </c>
       <c r="L12">
-        <v>1.027961348354789</v>
+        <v>1.047962111456734</v>
       </c>
       <c r="M12">
-        <v>1.032922974910421</v>
+        <v>1.057134792901743</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9975970393558431</v>
+        <v>1.036065412842439</v>
       </c>
       <c r="D13">
-        <v>1.017504026614052</v>
+        <v>1.039337047642014</v>
       </c>
       <c r="E13">
-        <v>1.013282176393063</v>
+        <v>1.044422191987024</v>
       </c>
       <c r="F13">
-        <v>1.018363478697962</v>
+        <v>1.053634302053058</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046863928578761</v>
+        <v>1.041879496401308</v>
       </c>
       <c r="J13">
-        <v>1.027410451656699</v>
+        <v>1.042692861563095</v>
       </c>
       <c r="K13">
-        <v>1.032260453937986</v>
+        <v>1.042927028277552</v>
       </c>
       <c r="L13">
-        <v>1.028116064574785</v>
+        <v>1.047993359073254</v>
       </c>
       <c r="M13">
-        <v>1.033104239521445</v>
+        <v>1.057171897869321</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9983898515870755</v>
+        <v>1.036214602544176</v>
       </c>
       <c r="D14">
-        <v>1.018072646508557</v>
+        <v>1.039447632761562</v>
       </c>
       <c r="E14">
-        <v>1.013941349070702</v>
+        <v>1.044556395554789</v>
       </c>
       <c r="F14">
-        <v>1.019109835177716</v>
+        <v>1.053787449012932</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047145823087288</v>
+        <v>1.041921475869031</v>
       </c>
       <c r="J14">
-        <v>1.027865518402709</v>
+        <v>1.042781266902561</v>
       </c>
       <c r="K14">
-        <v>1.03267813467695</v>
+        <v>1.043005708915187</v>
       </c>
       <c r="L14">
-        <v>1.028621686086352</v>
+        <v>1.048095752192109</v>
       </c>
       <c r="M14">
-        <v>1.033696655898392</v>
+        <v>1.057293489295597</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9988767190825222</v>
+        <v>1.036306537188104</v>
       </c>
       <c r="D15">
-        <v>1.018421938181135</v>
+        <v>1.039515778046232</v>
       </c>
       <c r="E15">
-        <v>1.01434632371458</v>
+        <v>1.044639105245606</v>
       </c>
       <c r="F15">
-        <v>1.019568360342555</v>
+        <v>1.053881834541162</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047318724618193</v>
+        <v>1.041947315725378</v>
       </c>
       <c r="J15">
-        <v>1.028144930390694</v>
+        <v>1.042835733999071</v>
       </c>
       <c r="K15">
-        <v>1.032934563509383</v>
+        <v>1.043054179667023</v>
       </c>
       <c r="L15">
-        <v>1.028932213800694</v>
+        <v>1.048158846058093</v>
       </c>
       <c r="M15">
-        <v>1.03406051419026</v>
+        <v>1.057368416662018</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.001686358309473</v>
+        <v>1.03684184834983</v>
       </c>
       <c r="D16">
-        <v>1.020439134833887</v>
+        <v>1.039912566658297</v>
       </c>
       <c r="E16">
-        <v>1.016685995660614</v>
+        <v>1.045120852761581</v>
       </c>
       <c r="F16">
-        <v>1.022217232966695</v>
+        <v>1.054431604372295</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048313285806221</v>
+        <v>1.042097331351604</v>
       </c>
       <c r="J16">
-        <v>1.029756656865707</v>
+        <v>1.0431527192352</v>
       </c>
       <c r="K16">
-        <v>1.034413282870992</v>
+        <v>1.043336192830019</v>
       </c>
       <c r="L16">
-        <v>1.030724563242494</v>
+        <v>1.04852617152264</v>
       </c>
       <c r="M16">
-        <v>1.036161074642007</v>
+        <v>1.057804691209919</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.003427983095408</v>
+        <v>1.037177820233703</v>
       </c>
       <c r="D17">
-        <v>1.021690799388775</v>
+        <v>1.04016159559059</v>
       </c>
       <c r="E17">
-        <v>1.018138562980417</v>
+        <v>1.04542333948814</v>
       </c>
       <c r="F17">
-        <v>1.023861619518423</v>
+        <v>1.054776815916071</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048926918519438</v>
+        <v>1.042191093799892</v>
       </c>
       <c r="J17">
-        <v>1.030755063362434</v>
+        <v>1.04335152229975</v>
       </c>
       <c r="K17">
-        <v>1.035328906709969</v>
+        <v>1.043512996534573</v>
       </c>
       <c r="L17">
-        <v>1.031835860263556</v>
+        <v>1.048756664905437</v>
       </c>
       <c r="M17">
-        <v>1.037463815203581</v>
+        <v>1.058078498676516</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.004436534448816</v>
+        <v>1.037373853264066</v>
       </c>
       <c r="D18">
-        <v>1.02241605372756</v>
+        <v>1.040306897675695</v>
       </c>
       <c r="E18">
-        <v>1.01898052437718</v>
+        <v>1.045599882156258</v>
       </c>
       <c r="F18">
-        <v>1.024814718224835</v>
+        <v>1.05497829948313</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049281216909993</v>
+        <v>1.042245661655281</v>
       </c>
       <c r="J18">
-        <v>1.031332976295798</v>
+        <v>1.043467468339224</v>
       </c>
       <c r="K18">
-        <v>1.035858758476694</v>
+        <v>1.043616088272853</v>
       </c>
       <c r="L18">
-        <v>1.032479479264799</v>
+        <v>1.0488911361233</v>
       </c>
       <c r="M18">
-        <v>1.038218436581375</v>
+        <v>1.058238257325913</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.004779201528042</v>
+        <v>1.03744070666445</v>
       </c>
       <c r="D19">
-        <v>1.022662538869604</v>
+        <v>1.040356449975116</v>
       </c>
       <c r="E19">
-        <v>1.019266724724892</v>
+        <v>1.045660096786794</v>
       </c>
       <c r="F19">
-        <v>1.025138688703341</v>
+        <v>1.055047021745821</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049401414789452</v>
+        <v>1.042264247134528</v>
       </c>
       <c r="J19">
-        <v>1.031529285265778</v>
+        <v>1.043507000798235</v>
       </c>
       <c r="K19">
-        <v>1.036038717052615</v>
+        <v>1.043651233940576</v>
       </c>
       <c r="L19">
-        <v>1.032698168982211</v>
+        <v>1.048936992096715</v>
       </c>
       <c r="M19">
-        <v>1.038474864323381</v>
+        <v>1.058292739565779</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.003241883269314</v>
+        <v>1.037141766760198</v>
       </c>
       <c r="D20">
-        <v>1.02155700856832</v>
+        <v>1.040134872194685</v>
       </c>
       <c r="E20">
-        <v>1.017983266891116</v>
+        <v>1.045390874416166</v>
       </c>
       <c r="F20">
-        <v>1.023685820844641</v>
+        <v>1.054739764781927</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048861457698775</v>
+        <v>1.042181046610223</v>
       </c>
       <c r="J20">
-        <v>1.03064840522501</v>
+        <v>1.043330193888797</v>
       </c>
       <c r="K20">
-        <v>1.035231106933685</v>
+        <v>1.043494030768657</v>
       </c>
       <c r="L20">
-        <v>1.03171710477659</v>
+        <v>1.048731932206922</v>
       </c>
       <c r="M20">
-        <v>1.037324588640007</v>
+        <v>1.058049116400302</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9981567246939107</v>
+        <v>1.03617066698776</v>
       </c>
       <c r="D21">
-        <v>1.017905422284702</v>
+        <v>1.039415066084122</v>
       </c>
       <c r="E21">
-        <v>1.01374748225932</v>
+        <v>1.044516871270373</v>
       </c>
       <c r="F21">
-        <v>1.018890329681274</v>
+        <v>1.053742345499029</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047062975670129</v>
+        <v>1.041909119185325</v>
       </c>
       <c r="J21">
-        <v>1.027731715157695</v>
+        <v>1.042755234221105</v>
       </c>
       <c r="K21">
-        <v>1.032555329874188</v>
+        <v>1.042982540881637</v>
       </c>
       <c r="L21">
-        <v>1.028473002580327</v>
+        <v>1.048065598700356</v>
       </c>
       <c r="M21">
-        <v>1.033522444112042</v>
+        <v>1.057257681382699</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9948896398776013</v>
+        <v>1.035560705676821</v>
       </c>
       <c r="D22">
-        <v>1.015563782708469</v>
+        <v>1.038962936907341</v>
       </c>
       <c r="E22">
-        <v>1.011033800819711</v>
+        <v>1.043968329318529</v>
       </c>
       <c r="F22">
-        <v>1.015817532417354</v>
+        <v>1.0531163897361</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045898173008598</v>
+        <v>1.041737051988009</v>
       </c>
       <c r="J22">
-        <v>1.025855782024576</v>
+        <v>1.042393630634234</v>
       </c>
       <c r="K22">
-        <v>1.030833097224372</v>
+        <v>1.042660640908984</v>
       </c>
       <c r="L22">
-        <v>1.026389799777514</v>
+        <v>1.047646913000172</v>
       </c>
       <c r="M22">
-        <v>1.031082021155264</v>
+        <v>1.056760548377172</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9966284049547083</v>
+        <v>1.035883999612591</v>
       </c>
       <c r="D23">
-        <v>1.016809582291279</v>
+        <v>1.039202576729481</v>
       </c>
       <c r="E23">
-        <v>1.012477297786137</v>
+        <v>1.044259028449818</v>
       </c>
       <c r="F23">
-        <v>1.0174521102227</v>
+        <v>1.053448110039895</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046518951791567</v>
+        <v>1.041828371665052</v>
       </c>
       <c r="J23">
-        <v>1.026854344728781</v>
+        <v>1.042585332956637</v>
       </c>
       <c r="K23">
-        <v>1.031749958747874</v>
+        <v>1.042831314781901</v>
       </c>
       <c r="L23">
-        <v>1.027498381042797</v>
+        <v>1.047868840671514</v>
       </c>
       <c r="M23">
-        <v>1.032380593224271</v>
+        <v>1.057024042580241</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.003325996315382</v>
+        <v>1.037158057568233</v>
       </c>
       <c r="D24">
-        <v>1.021617477753932</v>
+        <v>1.040146947199755</v>
       </c>
       <c r="E24">
-        <v>1.018053454848813</v>
+        <v>1.045405543653493</v>
       </c>
       <c r="F24">
-        <v>1.023765275343149</v>
+        <v>1.054756506200822</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048891047808252</v>
+        <v>1.042185586880402</v>
       </c>
       <c r="J24">
-        <v>1.030696613147727</v>
+        <v>1.043339831318166</v>
       </c>
       <c r="K24">
-        <v>1.035275311452502</v>
+        <v>1.043502600689789</v>
       </c>
       <c r="L24">
-        <v>1.031770779405371</v>
+        <v>1.04874310776141</v>
       </c>
       <c r="M24">
-        <v>1.037387515313333</v>
+        <v>1.058062392827586</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010813212992893</v>
+        <v>1.038639126929202</v>
       </c>
       <c r="D25">
-        <v>1.027008699501555</v>
+        <v>1.041244702509481</v>
       </c>
       <c r="E25">
-        <v>1.024317719702466</v>
+        <v>1.046740212697545</v>
       </c>
       <c r="F25">
-        <v>1.030855676784471</v>
+        <v>1.056279822639949</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051502210062552</v>
+        <v>1.042595319072201</v>
       </c>
       <c r="J25">
-        <v>1.03498206992614</v>
+        <v>1.044214892902563</v>
       </c>
       <c r="K25">
-        <v>1.039201724300597</v>
+        <v>1.044280218381712</v>
       </c>
       <c r="L25">
-        <v>1.036549908719608</v>
+        <v>1.049758752320429</v>
       </c>
       <c r="M25">
-        <v>1.042993162841028</v>
+        <v>1.059269350678369</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_215/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_215/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039822463303314</v>
+        <v>1.016574454859807</v>
       </c>
       <c r="D2">
-        <v>1.042121712432953</v>
+        <v>1.031168263742676</v>
       </c>
       <c r="E2">
-        <v>1.047808065905107</v>
+        <v>1.02916086526153</v>
       </c>
       <c r="F2">
-        <v>1.057498777878844</v>
+        <v>1.036336536854799</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042918224583322</v>
+        <v>1.053477414461543</v>
       </c>
       <c r="J2">
-        <v>1.044912398873431</v>
+        <v>1.038270481003276</v>
       </c>
       <c r="K2">
-        <v>1.044899293951856</v>
+        <v>1.04220980335778</v>
       </c>
       <c r="L2">
-        <v>1.050569669777072</v>
+        <v>1.04022835854459</v>
       </c>
       <c r="M2">
-        <v>1.060233581550295</v>
+        <v>1.047311833839455</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040682827700167</v>
+        <v>1.020644276543229</v>
       </c>
       <c r="D3">
-        <v>1.042759306656269</v>
+        <v>1.034112132285001</v>
       </c>
       <c r="E3">
-        <v>1.048585319699209</v>
+        <v>1.032594659381744</v>
       </c>
       <c r="F3">
-        <v>1.058386113757657</v>
+        <v>1.040222103119486</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043150409370334</v>
+        <v>1.054852304692222</v>
       </c>
       <c r="J3">
-        <v>1.045418573047115</v>
+        <v>1.040587552469447</v>
       </c>
       <c r="K3">
-        <v>1.045348109437201</v>
+        <v>1.04432638179602</v>
       </c>
       <c r="L3">
-        <v>1.051158932055789</v>
+        <v>1.042826803302831</v>
       </c>
       <c r="M3">
-        <v>1.06093457893126</v>
+        <v>1.050364955460647</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041240068048999</v>
+        <v>1.0232279543678</v>
       </c>
       <c r="D4">
-        <v>1.043172236401728</v>
+        <v>1.035983258252006</v>
       </c>
       <c r="E4">
-        <v>1.049089122854325</v>
+        <v>1.034780134214226</v>
       </c>
       <c r="F4">
-        <v>1.058961317616562</v>
+        <v>1.042695009930604</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043299591956947</v>
+        <v>1.055715447356156</v>
       </c>
       <c r="J4">
-        <v>1.045745966312441</v>
+        <v>1.042055588279117</v>
       </c>
       <c r="K4">
-        <v>1.045638197542667</v>
+        <v>1.045665959867093</v>
       </c>
       <c r="L4">
-        <v>1.051540431010173</v>
+        <v>1.044476161000985</v>
       </c>
       <c r="M4">
-        <v>1.061388569452126</v>
+        <v>1.05230406831379</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04147445656412</v>
+        <v>1.024302594087689</v>
       </c>
       <c r="D5">
-        <v>1.04334591746405</v>
+        <v>1.036762019805711</v>
       </c>
       <c r="E5">
-        <v>1.049301127768389</v>
+        <v>1.035690452565359</v>
       </c>
       <c r="F5">
-        <v>1.059203380062493</v>
+        <v>1.043725037572198</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043362054614016</v>
+        <v>1.056072097663867</v>
       </c>
       <c r="J5">
-        <v>1.045883568844992</v>
+        <v>1.042665463230667</v>
       </c>
       <c r="K5">
-        <v>1.045760071459705</v>
+        <v>1.046222116932865</v>
       </c>
       <c r="L5">
-        <v>1.05170086132877</v>
+        <v>1.045162099567238</v>
       </c>
       <c r="M5">
-        <v>1.061579520888876</v>
+        <v>1.053110790885585</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041513818694332</v>
+        <v>1.02448236483818</v>
       </c>
       <c r="D6">
-        <v>1.043375084238061</v>
+        <v>1.036892322644029</v>
       </c>
       <c r="E6">
-        <v>1.04933673635999</v>
+        <v>1.035842810660758</v>
       </c>
       <c r="F6">
-        <v>1.059244037828963</v>
+        <v>1.043897430554245</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043372527469259</v>
+        <v>1.056131620048925</v>
       </c>
       <c r="J6">
-        <v>1.045906670910369</v>
+        <v>1.042767442167264</v>
       </c>
       <c r="K6">
-        <v>1.045780529952234</v>
+        <v>1.046315092607826</v>
       </c>
       <c r="L6">
-        <v>1.051727801069559</v>
+        <v>1.045276840704835</v>
       </c>
       <c r="M6">
-        <v>1.061611587932272</v>
+        <v>1.053245752879689</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041243199471811</v>
+        <v>1.023242358607564</v>
       </c>
       <c r="D7">
-        <v>1.043174556803119</v>
+        <v>1.03599369469906</v>
       </c>
       <c r="E7">
-        <v>1.049091954866828</v>
+        <v>1.034792330814146</v>
       </c>
       <c r="F7">
-        <v>1.058964551099543</v>
+        <v>1.042708810462867</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04330042758387</v>
+        <v>1.055720237186591</v>
       </c>
       <c r="J7">
-        <v>1.045747805097744</v>
+        <v>1.042063765836343</v>
       </c>
       <c r="K7">
-        <v>1.045639826340302</v>
+        <v>1.045673418545566</v>
       </c>
       <c r="L7">
-        <v>1.051542574500424</v>
+        <v>1.044485355550091</v>
       </c>
       <c r="M7">
-        <v>1.061391120587847</v>
+        <v>1.052314880780801</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040113117443816</v>
+        <v>1.017960407146196</v>
       </c>
       <c r="D8">
-        <v>1.042337114092236</v>
+        <v>1.032170282918738</v>
       </c>
       <c r="E8">
-        <v>1.048070561704961</v>
+        <v>1.030329035316324</v>
       </c>
       <c r="F8">
-        <v>1.057798441139049</v>
+        <v>1.037658426465511</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042996910807385</v>
+        <v>1.05394763294834</v>
       </c>
       <c r="J8">
-        <v>1.045083490085615</v>
+        <v>1.039060141344405</v>
       </c>
       <c r="K8">
-        <v>1.045051039932464</v>
+        <v>1.04293143025633</v>
       </c>
       <c r="L8">
-        <v>1.050768770071914</v>
+        <v>1.041113273451185</v>
       </c>
       <c r="M8">
-        <v>1.060470403490928</v>
+        <v>1.048351353064686</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038125871715058</v>
+        <v>1.008253981152784</v>
       </c>
       <c r="D9">
-        <v>1.040864291502417</v>
+        <v>1.025164015524978</v>
       </c>
       <c r="E9">
-        <v>1.046277460487591</v>
+        <v>1.022172786809423</v>
       </c>
       <c r="F9">
-        <v>1.055751637725469</v>
+        <v>1.028428055997584</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042454018258113</v>
+        <v>1.050614942270849</v>
       </c>
       <c r="J9">
-        <v>1.04391189969904</v>
+        <v>1.033518599504354</v>
       </c>
       <c r="K9">
-        <v>1.044011082560252</v>
+        <v>1.037861603341649</v>
       </c>
       <c r="L9">
-        <v>1.049406872369339</v>
+        <v>1.034916084871647</v>
       </c>
       <c r="M9">
-        <v>1.058851101320852</v>
+        <v>1.041076151047798</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036803889301303</v>
+        <v>1.001488535953311</v>
       </c>
       <c r="D10">
-        <v>1.039884430488777</v>
+        <v>1.020297024888666</v>
       </c>
       <c r="E10">
-        <v>1.045086683406827</v>
+        <v>1.016521115896062</v>
       </c>
       <c r="F10">
-        <v>1.054392609441817</v>
+        <v>1.0220305730891</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042086718776604</v>
+        <v>1.048243444641057</v>
       </c>
       <c r="J10">
-        <v>1.043130250922797</v>
+        <v>1.029643219647382</v>
       </c>
       <c r="K10">
-        <v>1.043316207619356</v>
+        <v>1.034309231945315</v>
       </c>
       <c r="L10">
-        <v>1.048500127417078</v>
+        <v>1.030598348755451</v>
       </c>
       <c r="M10">
-        <v>1.057773755320333</v>
+        <v>1.036013134186214</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036232150528977</v>
+        <v>0.9984828811770522</v>
       </c>
       <c r="D11">
-        <v>1.039460639974644</v>
+        <v>1.018139382474923</v>
       </c>
       <c r="E11">
-        <v>1.04457218214707</v>
+        <v>1.014018720420587</v>
       </c>
       <c r="F11">
-        <v>1.053805464082878</v>
+        <v>1.019197438204421</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04192640975119</v>
+        <v>1.047178873196409</v>
       </c>
       <c r="J11">
-        <v>1.042791663911963</v>
+        <v>1.02791891054678</v>
       </c>
       <c r="K11">
-        <v>1.043014961594752</v>
+        <v>1.032727136691403</v>
       </c>
       <c r="L11">
-        <v>1.048107795411837</v>
+        <v>1.028681019626918</v>
       </c>
       <c r="M11">
-        <v>1.057307791052855</v>
+        <v>1.033766177979044</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036019886192581</v>
+        <v>0.9973544290972456</v>
       </c>
       <c r="D12">
-        <v>1.039303301472834</v>
+        <v>1.017330062891306</v>
       </c>
       <c r="E12">
-        <v>1.044381242448094</v>
+        <v>1.013080532064491</v>
       </c>
       <c r="F12">
-        <v>1.053587572721888</v>
+        <v>1.01813515932282</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041866674407089</v>
+        <v>1.046777581543057</v>
       </c>
       <c r="J12">
-        <v>1.042665879606897</v>
+        <v>1.027271177797029</v>
       </c>
       <c r="K12">
-        <v>1.042903012421055</v>
+        <v>1.03213261096953</v>
       </c>
       <c r="L12">
-        <v>1.047962111456734</v>
+        <v>1.027961348354789</v>
       </c>
       <c r="M12">
-        <v>1.057134792901743</v>
+        <v>1.032922974910421</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036065412842439</v>
+        <v>0.9975970393558421</v>
       </c>
       <c r="D13">
-        <v>1.039337047642014</v>
+        <v>1.017504026614052</v>
       </c>
       <c r="E13">
-        <v>1.044422191987024</v>
+        <v>1.013282176393062</v>
       </c>
       <c r="F13">
-        <v>1.053634302053058</v>
+        <v>1.018363478697961</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041879496401308</v>
+        <v>1.04686392857876</v>
       </c>
       <c r="J13">
-        <v>1.042692861563095</v>
+        <v>1.027410451656698</v>
       </c>
       <c r="K13">
-        <v>1.042927028277552</v>
+        <v>1.032260453937985</v>
       </c>
       <c r="L13">
-        <v>1.047993359073254</v>
+        <v>1.028116064574784</v>
       </c>
       <c r="M13">
-        <v>1.057171897869321</v>
+        <v>1.033104239521444</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036214602544176</v>
+        <v>0.9983898515870754</v>
       </c>
       <c r="D14">
-        <v>1.039447632761562</v>
+        <v>1.018072646508558</v>
       </c>
       <c r="E14">
-        <v>1.044556395554789</v>
+        <v>1.013941349070702</v>
       </c>
       <c r="F14">
-        <v>1.053787449012932</v>
+        <v>1.019109835177716</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041921475869031</v>
+        <v>1.047145823087288</v>
       </c>
       <c r="J14">
-        <v>1.042781266902561</v>
+        <v>1.027865518402709</v>
       </c>
       <c r="K14">
-        <v>1.043005708915187</v>
+        <v>1.03267813467695</v>
       </c>
       <c r="L14">
-        <v>1.048095752192109</v>
+        <v>1.028621686086351</v>
       </c>
       <c r="M14">
-        <v>1.057293489295597</v>
+        <v>1.033696655898392</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036306537188104</v>
+        <v>0.9988767190825225</v>
       </c>
       <c r="D15">
-        <v>1.039515778046232</v>
+        <v>1.018421938181136</v>
       </c>
       <c r="E15">
-        <v>1.044639105245606</v>
+        <v>1.014346323714581</v>
       </c>
       <c r="F15">
-        <v>1.053881834541162</v>
+        <v>1.019568360342555</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041947315725378</v>
+        <v>1.047318724618194</v>
       </c>
       <c r="J15">
-        <v>1.042835733999071</v>
+        <v>1.028144930390695</v>
       </c>
       <c r="K15">
-        <v>1.043054179667023</v>
+        <v>1.032934563509383</v>
       </c>
       <c r="L15">
-        <v>1.048158846058093</v>
+        <v>1.028932213800695</v>
       </c>
       <c r="M15">
-        <v>1.057368416662018</v>
+        <v>1.03406051419026</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03684184834983</v>
+        <v>1.001686358309473</v>
       </c>
       <c r="D16">
-        <v>1.039912566658297</v>
+        <v>1.020439134833887</v>
       </c>
       <c r="E16">
-        <v>1.045120852761581</v>
+        <v>1.016685995660614</v>
       </c>
       <c r="F16">
-        <v>1.054431604372295</v>
+        <v>1.022217232966695</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042097331351604</v>
+        <v>1.048313285806221</v>
       </c>
       <c r="J16">
-        <v>1.0431527192352</v>
+        <v>1.029756656865707</v>
       </c>
       <c r="K16">
-        <v>1.043336192830019</v>
+        <v>1.034413282870992</v>
       </c>
       <c r="L16">
-        <v>1.04852617152264</v>
+        <v>1.030724563242494</v>
       </c>
       <c r="M16">
-        <v>1.057804691209919</v>
+        <v>1.036161074642006</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037177820233703</v>
+        <v>1.003427983095408</v>
       </c>
       <c r="D17">
-        <v>1.04016159559059</v>
+        <v>1.021690799388775</v>
       </c>
       <c r="E17">
-        <v>1.04542333948814</v>
+        <v>1.018138562980416</v>
       </c>
       <c r="F17">
-        <v>1.054776815916071</v>
+        <v>1.023861619518423</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042191093799892</v>
+        <v>1.048926918519438</v>
       </c>
       <c r="J17">
-        <v>1.04335152229975</v>
+        <v>1.030755063362434</v>
       </c>
       <c r="K17">
-        <v>1.043512996534573</v>
+        <v>1.035328906709969</v>
       </c>
       <c r="L17">
-        <v>1.048756664905437</v>
+        <v>1.031835860263556</v>
       </c>
       <c r="M17">
-        <v>1.058078498676516</v>
+        <v>1.037463815203581</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037373853264066</v>
+        <v>1.004436534448816</v>
       </c>
       <c r="D18">
-        <v>1.040306897675695</v>
+        <v>1.022416053727559</v>
       </c>
       <c r="E18">
-        <v>1.045599882156258</v>
+        <v>1.018980524377181</v>
       </c>
       <c r="F18">
-        <v>1.05497829948313</v>
+        <v>1.024814718224836</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042245661655281</v>
+        <v>1.049281216909993</v>
       </c>
       <c r="J18">
-        <v>1.043467468339224</v>
+        <v>1.031332976295799</v>
       </c>
       <c r="K18">
-        <v>1.043616088272853</v>
+        <v>1.035858758476693</v>
       </c>
       <c r="L18">
-        <v>1.0488911361233</v>
+        <v>1.032479479264799</v>
       </c>
       <c r="M18">
-        <v>1.058238257325913</v>
+        <v>1.038218436581375</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03744070666445</v>
+        <v>1.004779201528041</v>
       </c>
       <c r="D19">
-        <v>1.040356449975116</v>
+        <v>1.022662538869604</v>
       </c>
       <c r="E19">
-        <v>1.045660096786794</v>
+        <v>1.019266724724891</v>
       </c>
       <c r="F19">
-        <v>1.055047021745821</v>
+        <v>1.02513868870334</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042264247134528</v>
+        <v>1.049401414789452</v>
       </c>
       <c r="J19">
-        <v>1.043507000798235</v>
+        <v>1.031529285265777</v>
       </c>
       <c r="K19">
-        <v>1.043651233940576</v>
+        <v>1.036038717052614</v>
       </c>
       <c r="L19">
-        <v>1.048936992096715</v>
+        <v>1.03269816898221</v>
       </c>
       <c r="M19">
-        <v>1.058292739565779</v>
+        <v>1.03847486432338</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037141766760198</v>
+        <v>1.003241883269314</v>
       </c>
       <c r="D20">
-        <v>1.040134872194685</v>
+        <v>1.021557008568319</v>
       </c>
       <c r="E20">
-        <v>1.045390874416166</v>
+        <v>1.017983266891115</v>
       </c>
       <c r="F20">
-        <v>1.054739764781927</v>
+        <v>1.02368582084464</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042181046610223</v>
+        <v>1.048861457698775</v>
       </c>
       <c r="J20">
-        <v>1.043330193888797</v>
+        <v>1.030648405225009</v>
       </c>
       <c r="K20">
-        <v>1.043494030768657</v>
+        <v>1.035231106933685</v>
       </c>
       <c r="L20">
-        <v>1.048731932206922</v>
+        <v>1.031717104776589</v>
       </c>
       <c r="M20">
-        <v>1.058049116400302</v>
+        <v>1.037324588640007</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03617066698776</v>
+        <v>0.9981567246939107</v>
       </c>
       <c r="D21">
-        <v>1.039415066084122</v>
+        <v>1.017905422284701</v>
       </c>
       <c r="E21">
-        <v>1.044516871270373</v>
+        <v>1.01374748225932</v>
       </c>
       <c r="F21">
-        <v>1.053742345499029</v>
+        <v>1.018890329681273</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041909119185325</v>
+        <v>1.047062975670129</v>
       </c>
       <c r="J21">
-        <v>1.042755234221105</v>
+        <v>1.027731715157695</v>
       </c>
       <c r="K21">
-        <v>1.042982540881637</v>
+        <v>1.032555329874188</v>
       </c>
       <c r="L21">
-        <v>1.048065598700356</v>
+        <v>1.028473002580327</v>
       </c>
       <c r="M21">
-        <v>1.057257681382699</v>
+        <v>1.033522444112042</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035560705676821</v>
+        <v>0.9948896398776019</v>
       </c>
       <c r="D22">
-        <v>1.038962936907341</v>
+        <v>1.01556378270847</v>
       </c>
       <c r="E22">
-        <v>1.043968329318529</v>
+        <v>1.011033800819711</v>
       </c>
       <c r="F22">
-        <v>1.0531163897361</v>
+        <v>1.015817532417354</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041737051988009</v>
+        <v>1.045898173008599</v>
       </c>
       <c r="J22">
-        <v>1.042393630634234</v>
+        <v>1.025855782024577</v>
       </c>
       <c r="K22">
-        <v>1.042660640908984</v>
+        <v>1.030833097224373</v>
       </c>
       <c r="L22">
-        <v>1.047646913000172</v>
+        <v>1.026389799777514</v>
       </c>
       <c r="M22">
-        <v>1.056760548377172</v>
+        <v>1.031082021155264</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035883999612591</v>
+        <v>0.9966284049547075</v>
       </c>
       <c r="D23">
-        <v>1.039202576729481</v>
+        <v>1.016809582291279</v>
       </c>
       <c r="E23">
-        <v>1.044259028449818</v>
+        <v>1.012477297786136</v>
       </c>
       <c r="F23">
-        <v>1.053448110039895</v>
+        <v>1.017452110222699</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041828371665052</v>
+        <v>1.046518951791567</v>
       </c>
       <c r="J23">
-        <v>1.042585332956637</v>
+        <v>1.02685434472878</v>
       </c>
       <c r="K23">
-        <v>1.042831314781901</v>
+        <v>1.031749958747873</v>
       </c>
       <c r="L23">
-        <v>1.047868840671514</v>
+        <v>1.027498381042796</v>
       </c>
       <c r="M23">
-        <v>1.057024042580241</v>
+        <v>1.03238059322427</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.037158057568233</v>
+        <v>1.003325996315383</v>
       </c>
       <c r="D24">
-        <v>1.040146947199755</v>
+        <v>1.021617477753932</v>
       </c>
       <c r="E24">
-        <v>1.045405543653493</v>
+        <v>1.018053454848813</v>
       </c>
       <c r="F24">
-        <v>1.054756506200822</v>
+        <v>1.023765275343149</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042185586880402</v>
+        <v>1.048891047808252</v>
       </c>
       <c r="J24">
-        <v>1.043339831318166</v>
+        <v>1.030696613147727</v>
       </c>
       <c r="K24">
-        <v>1.043502600689789</v>
+        <v>1.035275311452502</v>
       </c>
       <c r="L24">
-        <v>1.04874310776141</v>
+        <v>1.031770779405371</v>
       </c>
       <c r="M24">
-        <v>1.058062392827586</v>
+        <v>1.037387515313334</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038639126929202</v>
+        <v>1.010813212992893</v>
       </c>
       <c r="D25">
-        <v>1.041244702509481</v>
+        <v>1.027008699501555</v>
       </c>
       <c r="E25">
-        <v>1.046740212697545</v>
+        <v>1.024317719702464</v>
       </c>
       <c r="F25">
-        <v>1.056279822639949</v>
+        <v>1.03085567678447</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042595319072201</v>
+        <v>1.051502210062552</v>
       </c>
       <c r="J25">
-        <v>1.044214892902563</v>
+        <v>1.034982069926139</v>
       </c>
       <c r="K25">
-        <v>1.044280218381712</v>
+        <v>1.039201724300597</v>
       </c>
       <c r="L25">
-        <v>1.049758752320429</v>
+        <v>1.036549908719607</v>
       </c>
       <c r="M25">
-        <v>1.059269350678369</v>
+        <v>1.042993162841027</v>
       </c>
     </row>
   </sheetData>
